--- a/data/trans_bre/P27A_11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27A_11-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 6,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,97; 116,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 161,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,28; 67,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 88,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 142,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,22; 138,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-32,24%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-63,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-38,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -834,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 34,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 54,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,72; 47,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P27A_11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27A_11-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +747,131 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
+      <c r="I13" s="6" t="inlineStr"/>
+      <c r="J13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
